--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s4_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.1743708687662</v>
+        <v>36.5508688405959</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4149999618530273</v>
+        <v>0.4030001163482666</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.1743708687662</v>
+        <v>36.5508688405959</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.33845519167733</v>
+        <v>25.33845519167728</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>20.12638394214333</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.19455318383374</v>
+        <v>21.61595173195239</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27.68109939842174</v>
       </c>
     </row>
     <row r="8">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.9900000000017</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.9100000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6700000000004</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>158.3650000000002</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>152.5850000000002</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000000145</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.97000000000014</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63500000000001</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47500000000065</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27000000000132</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.9950000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000058</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>142.9850000000006</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.284999999998</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>157.2950000000001</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>166.6849999999995</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>159.3350000000009</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.48500000000054</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>67.76499999999938</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.50500000000096</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>69.05999999999945</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>66.45</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.9900000000016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.9099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>158.3649999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.5850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>62.48500000000109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>67.76499999999936</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>70.50500000000096</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>69.05999999999949</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>66.45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>142.9850000000006</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>153.2849999999971</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>157.295000000001</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>166.6849999999986</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>159.3350000000009</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
